--- a/service_type_business.xlsx
+++ b/service_type_business.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Downloads\1_Github\Medium-Blog-Articles\SQL\post_no1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingData\accounting-database-using-sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6857B-4A5E-44E5-8B6E-2B5352A83D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5134B7F-3F8F-4525-A49C-95874C4E51AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COA-complete" sheetId="19" r:id="rId1"/>
-    <sheet name="COA" sheetId="1" r:id="rId2"/>
-    <sheet name="Customers" sheetId="14" r:id="rId3"/>
-    <sheet name="Invoice_Payments" sheetId="15" r:id="rId4"/>
-    <sheet name="Invoices" sheetId="3" r:id="rId5"/>
-    <sheet name="Received_Moneys" sheetId="16" r:id="rId6"/>
-    <sheet name="Invoice_Lines" sheetId="7" r:id="rId7"/>
-    <sheet name="Received_Money_Lines" sheetId="17" r:id="rId8"/>
-    <sheet name="Suppliers" sheetId="2" r:id="rId9"/>
-    <sheet name="Bill_Payments" sheetId="18" r:id="rId10"/>
-    <sheet name="Bills" sheetId="4" r:id="rId11"/>
-    <sheet name="Bill_Lines" sheetId="8" r:id="rId12"/>
-    <sheet name="Spent_Moneys" sheetId="6" r:id="rId13"/>
-    <sheet name="Spent_Money_Lines" sheetId="10" r:id="rId14"/>
-    <sheet name="GJ" sheetId="9" r:id="rId15"/>
+    <sheet name="Accounts" sheetId="19" r:id="rId1"/>
+    <sheet name="Customers" sheetId="14" r:id="rId2"/>
+    <sheet name="Invoice_Payments" sheetId="15" r:id="rId3"/>
+    <sheet name="Invoices" sheetId="3" r:id="rId4"/>
+    <sheet name="Received_Moneys" sheetId="16" r:id="rId5"/>
+    <sheet name="Invoice_Lines" sheetId="7" r:id="rId6"/>
+    <sheet name="Received_Money_Lines" sheetId="17" r:id="rId7"/>
+    <sheet name="Suppliers" sheetId="2" r:id="rId8"/>
+    <sheet name="Bill_Payments" sheetId="18" r:id="rId9"/>
+    <sheet name="Bills" sheetId="4" r:id="rId10"/>
+    <sheet name="Bill_Lines" sheetId="8" r:id="rId11"/>
+    <sheet name="Spent_Moneys" sheetId="6" r:id="rId12"/>
+    <sheet name="Spent_Money_Lines" sheetId="10" r:id="rId13"/>
+    <sheet name="Journals" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COA!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COA-complete'!$D:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Accounts!$D:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,40 +88,6 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Kenneth Infante</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kenneth Infante:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-know as the Account Code</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>Kenneth</author>
   </authors>
   <commentList>
@@ -156,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="156">
   <si>
     <t>Business Bank Account</t>
   </si>
@@ -599,12 +563,6 @@
     <t>supplier_id</t>
   </si>
   <si>
-    <t>coa_id</t>
-  </si>
-  <si>
-    <t>line_coa_id</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -624,6 +582,12 @@
   </si>
   <si>
     <t>received_money_id</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>line_account_id</t>
   </si>
 </sst>
 </file>
@@ -1224,17 +1188,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1561,14 +1515,14 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1579,13 +1533,13 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>110</v>
       </c>
@@ -1599,7 +1553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>120</v>
       </c>
@@ -1613,7 +1567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>130</v>
       </c>
@@ -1627,7 +1581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>135</v>
       </c>
@@ -1641,7 +1595,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>140</v>
       </c>
@@ -1655,7 +1609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>150</v>
       </c>
@@ -1669,7 +1623,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>160</v>
       </c>
@@ -1683,7 +1637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>165</v>
       </c>
@@ -1697,7 +1651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>170</v>
       </c>
@@ -1711,7 +1665,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>180</v>
       </c>
@@ -1725,7 +1679,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>185</v>
       </c>
@@ -1739,7 +1693,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>190</v>
       </c>
@@ -1753,7 +1707,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>195</v>
       </c>
@@ -1767,7 +1721,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200</v>
       </c>
@@ -1781,7 +1735,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1795,7 +1749,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>210</v>
       </c>
@@ -1809,7 +1763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>215</v>
       </c>
@@ -1823,7 +1777,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>220</v>
       </c>
@@ -1837,7 +1791,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>225</v>
       </c>
@@ -1851,7 +1805,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>310</v>
       </c>
@@ -1865,7 +1819,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>320</v>
       </c>
@@ -1879,7 +1833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>330</v>
       </c>
@@ -1893,7 +1847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>340</v>
       </c>
@@ -1907,7 +1861,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>350</v>
       </c>
@@ -1921,7 +1875,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>360</v>
       </c>
@@ -1935,7 +1889,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>370</v>
       </c>
@@ -1949,7 +1903,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>380</v>
       </c>
@@ -1963,7 +1917,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>410</v>
       </c>
@@ -1977,7 +1931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>420</v>
       </c>
@@ -1991,7 +1945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>430</v>
       </c>
@@ -2005,7 +1959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>510</v>
       </c>
@@ -2019,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>520</v>
       </c>
@@ -2033,7 +1987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>530</v>
       </c>
@@ -2047,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>540</v>
       </c>
@@ -2061,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>610</v>
       </c>
@@ -2075,7 +2029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>620</v>
       </c>
@@ -2089,7 +2043,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>630</v>
       </c>
@@ -2103,7 +2057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>640</v>
       </c>
@@ -2117,7 +2071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>650</v>
       </c>
@@ -2131,7 +2085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>660</v>
       </c>
@@ -2145,7 +2099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>670</v>
       </c>
@@ -2159,7 +2113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>680</v>
       </c>
@@ -2173,7 +2127,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>690</v>
       </c>
@@ -2187,7 +2141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>700</v>
       </c>
@@ -2201,7 +2155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>710</v>
       </c>
@@ -2215,7 +2169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>720</v>
       </c>
@@ -2229,7 +2183,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>730</v>
       </c>
@@ -2243,7 +2197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>740</v>
       </c>
@@ -2257,7 +2211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>750</v>
       </c>
@@ -2271,7 +2225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>760</v>
       </c>
@@ -2285,7 +2239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>770</v>
       </c>
@@ -2299,7 +2253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>780</v>
       </c>
@@ -2313,7 +2267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>790</v>
       </c>
@@ -2327,7 +2281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>800</v>
       </c>
@@ -2341,7 +2295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>810</v>
       </c>
@@ -2355,7 +2309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>820</v>
       </c>
@@ -2369,7 +2323,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>830</v>
       </c>
@@ -2383,7 +2337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>840</v>
       </c>
@@ -2395,1685 +2349,6 @@
       </c>
       <c r="E59" t="s">
         <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF048ACC-2CD2-4615-A118-96AC3463EAB4}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>39258</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2">
-        <v>-1710</v>
-      </c>
-      <c r="F2">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>38918</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2">
-        <v>-300</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>38918</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3">
-        <v>-180</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>38918</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4">
-        <v>-220</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>39079</v>
-      </c>
-      <c r="E5">
-        <v>1256</v>
-      </c>
-      <c r="F5">
-        <v>-1710</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>39133</v>
-      </c>
-      <c r="E6">
-        <v>1257</v>
-      </c>
-      <c r="F6">
-        <v>-1610</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>310</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="H1:L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>780</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>180</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>780</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>220</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>780</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>600</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>190</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>650</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>210</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>460</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>800</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>450</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>190</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>360</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>210</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>39442</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2">
-        <v>-745</v>
-      </c>
-      <c r="G2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>39288</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>-600</v>
-      </c>
-      <c r="G3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>745</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>600</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>840</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-      <c r="G2">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3">
-        <v>190</v>
-      </c>
-      <c r="G3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4">
-        <v>210</v>
-      </c>
-      <c r="G4">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5">
-        <v>430</v>
-      </c>
-      <c r="G5">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6">
-        <v>205</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7">
-        <v>195</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>215</v>
-      </c>
-      <c r="G8">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9">
-        <v>430</v>
-      </c>
-      <c r="G9">
-        <v>-245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10">
-        <v>205</v>
-      </c>
-      <c r="G10">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>195</v>
-      </c>
-      <c r="G11">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12">
-        <v>215</v>
-      </c>
-      <c r="G12">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>38923</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13">
-        <v>430</v>
-      </c>
-      <c r="G13">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>39202</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14">
-        <v>205</v>
-      </c>
-      <c r="G14">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>39202</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15">
-        <v>195</v>
-      </c>
-      <c r="G15">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>39202</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16">
-        <v>215</v>
-      </c>
-      <c r="G16">
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>39202</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17">
-        <v>660</v>
-      </c>
-      <c r="G17">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4">
-        <v>39259</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
-      </c>
-      <c r="G18">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4">
-        <v>39259</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19">
-        <v>190</v>
-      </c>
-      <c r="G19">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
-        <v>39259</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20">
-        <v>210</v>
-      </c>
-      <c r="G20">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>39259</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21">
-        <v>660</v>
-      </c>
-      <c r="G21">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>39259</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22">
-        <v>205</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4">
-        <v>39259</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23">
-        <v>195</v>
-      </c>
-      <c r="G23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4">
-        <v>39259</v>
-      </c>
-      <c r="D24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24">
-        <v>215</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4">
-        <v>39259</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25">
-        <v>660</v>
-      </c>
-      <c r="G25">
-        <v>-80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="43" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>150</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>165</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>170</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>180</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>185</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>190</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>195</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>200</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>205</v>
-      </c>
-      <c r="B16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>210</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>220</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>225</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>310</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>320</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>330</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>340</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>350</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>360</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>370</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>380</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>410</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>420</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>430</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>510</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>520</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>530</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>540</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>610</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>620</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>630</v>
-      </c>
-      <c r="B38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>640</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>650</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>660</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>670</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>680</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>690</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>700</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>710</v>
-      </c>
-      <c r="B46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>720</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>730</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>740</v>
-      </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>750</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>760</v>
-      </c>
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>770</v>
-      </c>
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>780</v>
-      </c>
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>790</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>800</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>810</v>
-      </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>820</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>830</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>840</v>
-      </c>
-      <c r="B59" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4086,25 +2361,1150 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>38918</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>-300</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>38918</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>-180</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>38918</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>-220</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>39079</v>
+      </c>
+      <c r="E5">
+        <v>1256</v>
+      </c>
+      <c r="F5">
+        <v>-1710</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>39133</v>
+      </c>
+      <c r="E6">
+        <v>1257</v>
+      </c>
+      <c r="F6">
+        <v>-1610</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>780</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>780</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>220</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>780</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>190</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>650</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>210</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>460</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>800</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>450</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>190</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>360</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>210</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="6" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>39442</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>-745</v>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>39288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>-600</v>
+      </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>745</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>190</v>
+      </c>
+      <c r="G3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>210</v>
+      </c>
+      <c r="G4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>430</v>
+      </c>
+      <c r="G5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>205</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>195</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>215</v>
+      </c>
+      <c r="G8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>430</v>
+      </c>
+      <c r="G9">
+        <v>-245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>205</v>
+      </c>
+      <c r="G10">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>195</v>
+      </c>
+      <c r="G11">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>215</v>
+      </c>
+      <c r="G12">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>38923</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>430</v>
+      </c>
+      <c r="G13">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>39202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14">
+        <v>205</v>
+      </c>
+      <c r="G14">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>39202</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15">
+        <v>195</v>
+      </c>
+      <c r="G15">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>39202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>215</v>
+      </c>
+      <c r="G16">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>39202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17">
+        <v>660</v>
+      </c>
+      <c r="G17">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>190</v>
+      </c>
+      <c r="G19">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>210</v>
+      </c>
+      <c r="G20">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21">
+        <v>660</v>
+      </c>
+      <c r="G21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22">
+        <v>205</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>195</v>
+      </c>
+      <c r="G23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>215</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>660</v>
+      </c>
+      <c r="G25">
+        <v>-80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="G1:G1048576 I1:I1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4127,7 +3527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4147,12 +3547,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
@@ -4167,7 +3567,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4197,20 +3597,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F612AD14-E339-4FEE-A5B6-6BF26C107180}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4227,10 +3628,10 @@
         <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4247,7 +3648,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4262,6 +3663,128 @@
       </c>
       <c r="F3">
         <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>39214</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>39224</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>39236</v>
+      </c>
+      <c r="F4">
+        <v>2500</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4270,25 +3793,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317BFA2B-88C0-44AC-827A-217195FE8760}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4296,94 +3819,53 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>39214</v>
-      </c>
-      <c r="F2">
-        <v>2000</v>
+        <v>39288</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>39224</v>
-      </c>
-      <c r="F3">
+        <v>39319</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3">
         <v>2000</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>39236</v>
-      </c>
-      <c r="F4">
-        <v>2500</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4392,79 +3874,157 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317BFA2B-88C0-44AC-827A-217195FE8760}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>39288</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2">
-        <v>250</v>
-      </c>
-      <c r="G2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>-1000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>39319</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3">
-        <v>2000</v>
-      </c>
-      <c r="G3">
-        <v>110</v>
+      <c r="B3">
+        <v>-600</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-400</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-600</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-400</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1000</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-500</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-750</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1250</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -4473,19 +4033,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3821303A-7907-471A-BDEC-BC1A3F7A89B4}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4493,137 +4053,39 @@
         <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1000</v>
+        <v>-250</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-600</v>
+        <v>-2000</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-400</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-600</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-400</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-1000</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-500</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-750</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-1250</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>510</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4632,67 +4094,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3821303A-7907-471A-BDEC-BC1A3F7A89B4}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="5" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-250</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2000</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>410</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4700,17 +4101,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4733,7 +4134,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4753,7 +4154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4773,7 +4174,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4793,7 +4194,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4822,4 +4223,64 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF048ACC-2CD2-4615-A118-96AC3463EAB4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>39258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>-1710</v>
+      </c>
+      <c r="F2">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>